--- a/Dokumentation/Anforderungen-Probleme.xlsx
+++ b/Dokumentation/Anforderungen-Probleme.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dang\Desktop\EinkaufsApp\EinkaufsApp-Doku\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Probleme Funktionenumsetzung" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Anforderungen an die App</t>
   </si>
@@ -136,6 +137,24 @@
   </si>
   <si>
     <t>seinem FB-Profil oder via Twitter anmelden</t>
+  </si>
+  <si>
+    <t>Kein richtiges PM</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Auswirkung</t>
+  </si>
+  <si>
+    <t>Unzureichende Kommunikation -&gt; Zeitverzögerndes Arbeiten</t>
+  </si>
+  <si>
+    <t>Kein Teamspiel</t>
+  </si>
+  <si>
+    <t>Unterschiedliche Zielsetzungen wurden umgesetzt</t>
   </si>
 </sst>
 </file>
@@ -201,9 +220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -313,7 +332,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -606,4 +625,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dokumentation/Anforderungen-Probleme.xlsx
+++ b/Dokumentation/Anforderungen-Probleme.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Probleme Funktionenumsetzung" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
+    <sheet name="Projektgruppendynamik" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -632,7 +632,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
